--- a/季诚/成交客户/腾光电子/标签.xlsx
+++ b/季诚/成交客户/腾光电子/标签.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9612"/>
+    <workbookView windowWidth="23040" windowHeight="9612" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="5730红光4K" sheetId="1" r:id="rId1"/>
     <sheet name="5730红光8K" sheetId="3" r:id="rId2"/>
     <sheet name="5730白光" sheetId="4" r:id="rId3"/>
+    <sheet name="US65-Y" sheetId="5" r:id="rId4"/>
+    <sheet name="5730双芯红光" sheetId="6" r:id="rId5"/>
+    <sheet name="提醒" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>名称：</t>
   </si>
@@ -73,6 +76,103 @@
   </si>
   <si>
     <t>17000pcs</t>
+  </si>
+  <si>
+    <t>Model:</t>
+  </si>
+  <si>
+    <t>G2835US65-Y</t>
+  </si>
+  <si>
+    <t>Lot No:</t>
+  </si>
+  <si>
+    <t>IV:</t>
+  </si>
+  <si>
+    <t>40-45LM</t>
+  </si>
+  <si>
+    <t>VF:</t>
+  </si>
+  <si>
+    <t>3.2-3.3V</t>
+  </si>
+  <si>
+    <t>X/Y(HUE)</t>
+  </si>
+  <si>
+    <t>2(1800K)</t>
+  </si>
+  <si>
+    <t>Date Code:</t>
+  </si>
+  <si>
+    <t>200229/B10/14/B6</t>
+  </si>
+  <si>
+    <t>Quantity:</t>
+  </si>
+  <si>
+    <t>18000 PCS</t>
+  </si>
+  <si>
+    <t>Remarks:</t>
+  </si>
+  <si>
+    <t>5730铜支架双芯红光0.4W</t>
+  </si>
+  <si>
+    <t>5-6LM</t>
+  </si>
+  <si>
+    <t>1.9-2.1V</t>
+  </si>
+  <si>
+    <t>缺口为负。</t>
+  </si>
+  <si>
+    <r>
+      <t>这批色温（X/Y这一栏）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="28"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13区</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的货，不要跟之前</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="28"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14区</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的货贴在一个板子上</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -80,12 +180,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -98,6 +198,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Dotum"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -105,29 +216,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,6 +239,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -149,9 +290,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,52 +344,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -228,25 +361,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <u/>
+      <sz val="28"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -258,109 +376,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,73 +550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,6 +567,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,17 +618,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,24 +653,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -538,176 +667,180 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -768,6 +901,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2217420</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>388620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1598295</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3599815" y="2484120"/>
+          <a:ext cx="1613535" cy="1633220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,7 +1212,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1043,50 +1223,50 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="22.2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="22.2" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="22.2" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="22.2" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="22.2" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.16" right="0.16" top="0.236111111111111" bottom="0.04" header="0.156944444444444" footer="0.11"/>
@@ -1113,50 +1293,50 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="22.2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="22.2" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="22.2" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="22.2" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="22.2" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.16" right="0.16" top="0.236111111111111" bottom="0.04" header="0.156944444444444" footer="0.11"/>
@@ -1173,7 +1353,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1183,54 +1363,292 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="22.2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" ht="22.2" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="22.2" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="22.2" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="22.2" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.16" right="0.16" top="0.236111111111111" bottom="0.04" header="0.156944444444444" footer="0.11"/>
   <pageSetup paperSize="260" scale="60" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.1416666666667" customWidth="1"/>
+    <col min="2" max="2" width="29.3" customWidth="1"/>
+    <col min="3" max="3" width="22.2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2001030046</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" ht="33" customHeight="1" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" ht="20.4" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" ht="20.4" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" ht="7" customHeight="1"/>
+    <row r="12" hidden="1"/>
+    <row r="13" hidden="1"/>
+    <row r="14" ht="1" customHeight="1"/>
+    <row r="15" hidden="1"/>
+    <row r="16" ht="1" hidden="1" customHeight="1"/>
+    <row r="17" hidden="1"/>
+    <row r="18" hidden="1"/>
+    <row r="19" hidden="1"/>
+  </sheetData>
+  <pageMargins left="0.156944444444444" right="0.0388888888888889" top="0.118055555555556" bottom="0" header="0.0388888888888889" footer="0.0388888888888889"/>
+  <pageSetup paperSize="260" scale="32" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.6" customWidth="1"/>
+    <col min="2" max="2" width="32.2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="44.4" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="22.2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="22.2" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="22.2" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="22.2" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="22.2" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.16" right="0.16" top="0.236111111111111" bottom="0.04" header="0.156944444444444" footer="0.11"/>
+  <pageSetup paperSize="260" scale="47" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.6" customWidth="1"/>
+    <col min="2" max="2" width="26.3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" ht="34" customHeight="1" spans="1:2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B6"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.16" top="0.236111111111111" bottom="0.04" header="0.156944444444444" footer="0.11"/>
+  <pageSetup paperSize="260" scale="54" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/季诚/成交客户/腾光电子/标签.xlsx
+++ b/季诚/成交客户/腾光电子/标签.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9612" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9612" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="5730红光4K" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,17 @@
     <sheet name="US65-Y" sheetId="5" r:id="rId4"/>
     <sheet name="5730双芯红光" sheetId="6" r:id="rId5"/>
     <sheet name="提醒" sheetId="7" r:id="rId6"/>
+    <sheet name="2016-1D-V2" sheetId="8" r:id="rId7"/>
+    <sheet name="2016-1A-V2 " sheetId="9" r:id="rId8"/>
+    <sheet name="2016-1B-V2  " sheetId="10" r:id="rId9"/>
+    <sheet name="2016-1B-V3" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>名称：</t>
   </si>
@@ -133,6 +137,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t>这批色温（X/Y这一栏）</t>
     </r>
     <r>
@@ -174,16 +184,55 @@
       <t>的货贴在一个板子上</t>
     </r>
   </si>
+  <si>
+    <t>标 签 明 细</t>
+  </si>
+  <si>
+    <t>B0:</t>
+  </si>
+  <si>
+    <t>RA&gt;70</t>
+  </si>
+  <si>
+    <t>1D:</t>
+  </si>
+  <si>
+    <t>EC:</t>
+  </si>
+  <si>
+    <t>250-270LM</t>
+  </si>
+  <si>
+    <t>V2:</t>
+  </si>
+  <si>
+    <t>3.0-3.2V</t>
+  </si>
+  <si>
+    <t>色区不同，不建议混用在一个板子上</t>
+  </si>
+  <si>
+    <t>1A:</t>
+  </si>
+  <si>
+    <t>5700-6000K</t>
+  </si>
+  <si>
+    <t>1B:</t>
+  </si>
+  <si>
+    <t>3.2-3.4V</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -213,6 +262,66 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,50 +334,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,32 +364,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,14 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -336,25 +402,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,187 +425,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,20 +634,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +666,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -634,21 +678,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +696,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,10 +724,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,7 +736,7 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,133 +745,136 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -945,6 +997,221 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>455295</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31115</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右箭头 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13380000">
+          <a:off x="455295" y="1430020"/>
+          <a:ext cx="459740" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>455295</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31115</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右箭头 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13380000">
+          <a:off x="455295" y="1430020"/>
+          <a:ext cx="459740" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1223,55 +1490,129 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.2" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="22.2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="22.2" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="22.2" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="22.2" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="22.2" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.16" right="0.16" top="0.236111111111111" bottom="0.04" header="0.156944444444444" footer="0.11"/>
   <pageSetup paperSize="260" scale="59" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.6" customWidth="1"/>
+    <col min="2" max="2" width="32.2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="22.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="22.2" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" ht="22.2" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="22.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" ht="44.4" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.16" top="0.118055555555556" bottom="0.04" header="0.0388888888888889" footer="0.11"/>
+  <pageSetup paperSize="260" scale="51" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1293,50 +1634,50 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.2" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="22.2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="22.2" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="22.2" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="22.2" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="22.2" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.16" right="0.16" top="0.236111111111111" bottom="0.04" header="0.156944444444444" footer="0.11"/>
@@ -1363,50 +1704,50 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.2" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="22.2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" ht="22.2" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="22.2" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="22.2" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="22.2" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.16" right="0.16" top="0.236111111111111" bottom="0.04" header="0.156944444444444" footer="0.11"/>
@@ -1432,84 +1773,84 @@
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>2001030046</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" ht="20.4" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" ht="20.4" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" ht="7" customHeight="1"/>
     <row r="12" hidden="1"/>
@@ -1536,7 +1877,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1546,50 +1887,50 @@
   </cols>
   <sheetData>
     <row r="1" ht="44.4" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" ht="22.2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="22.2" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" ht="22.2" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" ht="22.2" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="22.2" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1607,7 +1948,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1651,4 +1992,224 @@
   <pageSetup paperSize="260" scale="54" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.6" customWidth="1"/>
+    <col min="2" max="2" width="32.2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="22.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="22.2" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="22.2" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" ht="22.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" ht="44.4" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.16" top="0.118055555555556" bottom="0.04" header="0.0388888888888889" footer="0.11"/>
+  <pageSetup paperSize="260" scale="51" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.6" customWidth="1"/>
+    <col min="2" max="2" width="32.2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="22.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="22.2" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="22.2" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" ht="22.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" ht="44.4" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.16" top="0.118055555555556" bottom="0.04" header="0.0388888888888889" footer="0.11"/>
+  <pageSetup paperSize="260" scale="51" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.6" customWidth="1"/>
+    <col min="2" max="2" width="32.2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="22.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="22.2" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" ht="22.2" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" ht="22.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" ht="44.4" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.16" top="0.118055555555556" bottom="0.04" header="0.0388888888888889" footer="0.11"/>
+  <pageSetup paperSize="260" scale="51" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/季诚/成交客户/腾光电子/标签.xlsx
+++ b/季诚/成交客户/腾光电子/标签.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9612" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="23040" windowHeight="9612" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="5730红光4K" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,18 @@
     <sheet name="5730双芯红光" sheetId="6" r:id="rId5"/>
     <sheet name="提醒" sheetId="7" r:id="rId6"/>
     <sheet name="2016-1D-V2" sheetId="8" r:id="rId7"/>
-    <sheet name="2016-1A-V2 " sheetId="9" r:id="rId8"/>
-    <sheet name="2016-1B-V2  " sheetId="10" r:id="rId9"/>
-    <sheet name="2016-1B-V3" sheetId="11" r:id="rId10"/>
+    <sheet name="2016-1D-V3" sheetId="12" r:id="rId8"/>
+    <sheet name="2016-2A-V2 " sheetId="9" r:id="rId9"/>
+    <sheet name="2016-2A-V3" sheetId="13" r:id="rId10"/>
+    <sheet name="2016-2B-V2  " sheetId="10" r:id="rId11"/>
+    <sheet name="2016-2B-V3" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
   <si>
     <t>名称：</t>
   </si>
@@ -212,16 +214,19 @@
     <t>色区不同，不建议混用在一个板子上</t>
   </si>
   <si>
+    <t>3.2-3.4V</t>
+  </si>
+  <si>
     <t>1A:</t>
   </si>
   <si>
     <t>5700-6000K</t>
   </si>
   <si>
-    <t>1B:</t>
-  </si>
-  <si>
-    <t>3.2-3.4V</t>
+    <t>2A:</t>
+  </si>
+  <si>
+    <t>2B:</t>
   </si>
 </sst>
 </file>
@@ -229,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -256,6 +261,30 @@
       <sz val="16"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -265,10 +294,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,6 +341,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -317,6 +377,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -325,21 +392,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -348,48 +400,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,13 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="28"/>
@@ -425,18 +430,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,6 +466,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -467,13 +484,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,19 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,90 +611,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,6 +621,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -630,6 +679,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,206 +721,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1549,8 +1554,8 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1575,6 +1580,79 @@
     </row>
     <row r="3" ht="22.2" spans="1:2">
       <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="22.2" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" ht="22.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" ht="44.4" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.16" top="0.118055555555556" bottom="0.04" header="0.0388888888888889" footer="0.11"/>
+  <pageSetup paperSize="260" scale="51" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.6" customWidth="1"/>
+    <col min="2" max="2" width="32.2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="22.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="22.2" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1586,15 +1664,89 @@
         <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" ht="22.2" spans="1:2">
       <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="6" ht="44.4" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.16" top="0.118055555555556" bottom="0.04" header="0.0388888888888889" footer="0.11"/>
+  <pageSetup paperSize="260" scale="51" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.6" customWidth="1"/>
+    <col min="2" max="2" width="32.2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="22.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="22.2" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" ht="22.2" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" ht="22.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="44.4" spans="1:2">
@@ -2074,8 +2226,8 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -2100,10 +2252,10 @@
     </row>
     <row r="3" ht="22.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="22.2" spans="1:2">
@@ -2119,7 +2271,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" ht="44.4" spans="1:2">
@@ -2148,7 +2300,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -2173,26 +2325,26 @@
     </row>
     <row r="3" ht="22.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" ht="22.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" ht="22.2" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" ht="44.4" spans="1:2">
@@ -2210,6 +2362,5 @@
   <pageMargins left="0.16" right="0.16" top="0.118055555555556" bottom="0.04" header="0.0388888888888889" footer="0.11"/>
   <pageSetup paperSize="260" scale="51" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>